--- a/OutputDefinitions.xlsx
+++ b/OutputDefinitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/NicksSoftware/UGR_LCM_Weber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24373A8-721B-0A46-BDCC-6E892A663A0D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1D72D8-E52B-F247-9B73-516B6D54A893}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="5280" windowWidth="27640" windowHeight="16940" xr2:uid="{EA35998C-6A21-8344-A791-E773B3A96710}"/>
+    <workbookView xWindow="5960" yWindow="3000" windowWidth="27640" windowHeight="16940" xr2:uid="{EA35998C-6A21-8344-A791-E773B3A96710}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>Scenario</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Ocean age 2 adult, i.e. did not return to spawn after first or second year</t>
   </si>
   <si>
-    <t>Total adults at LGD, sum of OA1, OA2, OA3</t>
-  </si>
-  <si>
     <t>Total adults passed to spawn naturally above trap or weir, i.e. number remaining after brood stock retention</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Number of smolt reaching LGD after hatchery release</t>
   </si>
   <si>
-    <t>Total brood retained</t>
-  </si>
-  <si>
     <t>Total returning adults at trap/weir</t>
   </si>
   <si>
@@ -238,15 +232,32 @@
   </si>
   <si>
     <t>Simulation number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Total adults at LGD, sum of LGD1, LGD2, LGD3</t>
+  </si>
+  <si>
+    <t>Total brood retained hatchery + wild</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -273,8 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,20 +604,24 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="A23:B23"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -628,7 +644,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -639,7 +655,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -650,7 +666,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -738,7 +754,7 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -749,7 +765,7 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -760,7 +776,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -771,7 +787,7 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -782,7 +798,7 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -793,7 +809,7 @@
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -804,7 +820,7 @@
         <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -815,7 +831,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -823,10 +839,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -834,10 +850,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -845,10 +861,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -856,10 +872,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -867,10 +883,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -878,10 +894,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -889,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
@@ -900,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
@@ -911,10 +927,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -922,10 +938,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -933,10 +949,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -944,10 +960,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -955,10 +971,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -966,10 +982,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -977,10 +993,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -988,10 +1004,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -999,10 +1015,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1013,7 +1029,7 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1024,7 +1040,7 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1035,7 +1051,7 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
